--- a/code/data/hlb_2.xlsx
+++ b/code/data/hlb_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bobby\Desktop\Fed Challenge 2025\NEUFed2025\code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47257CF2-D534-4BAB-A608-CFE43839515D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A952B1D9-7585-43A8-A0F5-DD339B6E0C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56B3B9D4-955B-4920-A799-E364018B99A7}"/>
   </bookViews>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43594199-0C6D-424D-AFDC-1EAB0B56B6BA}">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="M243" sqref="M243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +445,7 @@
         <v>5.2439839582963501E-3</v>
       </c>
       <c r="D2">
-        <v>5.44055954112648</v>
+        <v>4.3642000000000003</v>
       </c>
       <c r="E2">
         <v>-3.84911720628986</v>
@@ -462,7 +462,7 @@
         <v>1.18218369223053E-2</v>
       </c>
       <c r="D3">
-        <v>5.6616371933967997</v>
+        <v>4.3498000000000001</v>
       </c>
       <c r="E3">
         <v>-3.56308710154121</v>
@@ -479,7 +479,7 @@
         <v>1.44936548366346E-2</v>
       </c>
       <c r="D4">
-        <v>5.5687700157342803</v>
+        <v>4.3318000000000003</v>
       </c>
       <c r="E4">
         <v>-2.8030846990641298</v>
@@ -496,7 +496,7 @@
         <v>1.13668981520865E-2</v>
       </c>
       <c r="D5">
-        <v>5.5381696217697396</v>
+        <v>4.3113000000000001</v>
       </c>
       <c r="E5">
         <v>-2.1083834905180101</v>
@@ -513,7 +513,7 @@
         <v>1.3886532830387099E-2</v>
       </c>
       <c r="D6">
-        <v>5.35296214866149</v>
+        <v>4.2911999999999999</v>
       </c>
       <c r="E6">
         <v>-1.2681618195533699</v>
@@ -530,7 +530,7 @@
         <v>7.4214461447429797E-3</v>
       </c>
       <c r="D7">
-        <v>4.8206328081944898</v>
+        <v>4.2801999999999998</v>
       </c>
       <c r="E7">
         <v>-0.64318384591410904</v>
@@ -547,7 +547,7 @@
         <v>3.9528910483871199E-3</v>
       </c>
       <c r="D8">
-        <v>4.7095342600898098</v>
+        <v>4.2727000000000004</v>
       </c>
       <c r="E8">
         <v>-0.316545344131555</v>
@@ -564,7 +564,7 @@
         <v>-1.1046072861790599E-2</v>
       </c>
       <c r="D9">
-        <v>4.25906452674693</v>
+        <v>4.2781000000000002</v>
       </c>
       <c r="E9">
         <v>-0.17059872530592199</v>
@@ -581,7 +581,7 @@
         <v>-5.4378923972259602E-3</v>
       </c>
       <c r="D10">
-        <v>4.2440707065049104</v>
+        <v>4.2849000000000004</v>
       </c>
       <c r="E10">
         <v>2.50450674570857E-2</v>
@@ -598,7 +598,7 @@
         <v>-1.9030078409867401E-3</v>
       </c>
       <c r="D11">
-        <v>4.2115101159931703</v>
+        <v>4.2927999999999997</v>
       </c>
       <c r="E11">
         <v>0.28627527867468</v>
@@ -615,7 +615,7 @@
         <v>5.8265986211602097E-3</v>
       </c>
       <c r="D12">
-        <v>4.5380331368263001</v>
+        <v>4.2915000000000001</v>
       </c>
       <c r="E12">
         <v>0.67407735446113304</v>
@@ -632,7 +632,7 @@
         <v>1.05535461930512E-2</v>
       </c>
       <c r="D13">
-        <v>4.2689898532641601</v>
+        <v>4.2990000000000004</v>
       </c>
       <c r="E13">
         <v>1.1050668508357799</v>
@@ -649,7 +649,7 @@
         <v>1.1984879053073501E-2</v>
       </c>
       <c r="D14">
-        <v>4.5724286229217803</v>
+        <v>4.2964000000000002</v>
       </c>
       <c r="E14">
         <v>1.32675803518487</v>
@@ -666,7 +666,7 @@
         <v>-3.7361839160841401E-3</v>
       </c>
       <c r="D15">
-        <v>4.4893362085316602</v>
+        <v>4.2972999999999999</v>
       </c>
       <c r="E15">
         <v>1.5020335076042099</v>
@@ -683,7 +683,7 @@
         <v>-1.1044620136808901E-2</v>
       </c>
       <c r="D16">
-        <v>4.5882059230728496</v>
+        <v>4.2953000000000001</v>
       </c>
       <c r="E16">
         <v>1.65361437311765</v>
@@ -700,7 +700,7 @@
         <v>-2.6149535119496699E-2</v>
       </c>
       <c r="D17">
-        <v>4.3350218886280203</v>
+        <v>4.3025000000000002</v>
       </c>
       <c r="E17">
         <v>1.6269120313629599</v>
@@ -717,7 +717,7 @@
         <v>-1.0847578582289699E-2</v>
       </c>
       <c r="D18">
-        <v>4.7131161370295303</v>
+        <v>4.2927</v>
       </c>
       <c r="E18">
         <v>1.8733267845883601</v>
@@ -734,7 +734,7 @@
         <v>-1.9713016603552399E-2</v>
       </c>
       <c r="D19">
-        <v>4.6844442251735696</v>
+        <v>4.282</v>
       </c>
       <c r="E19">
         <v>2.0806541161288101</v>
@@ -751,7 +751,7 @@
         <v>-1.8950659602423599E-2</v>
       </c>
       <c r="D20">
-        <v>4.9370802942993501</v>
+        <v>4.2568999999999999</v>
       </c>
       <c r="E20">
         <v>2.3292557459388901</v>
@@ -768,7 +768,7 @@
         <v>-1.630376501894E-2</v>
       </c>
       <c r="D21">
-        <v>5.15383586976023</v>
+        <v>4.2183999999999999</v>
       </c>
       <c r="E21">
         <v>2.7288159172983302</v>
@@ -785,7 +785,7 @@
         <v>4.3967251374216702E-3</v>
       </c>
       <c r="D22">
-        <v>5.3820534411747101</v>
+        <v>4.1677</v>
       </c>
       <c r="E22">
         <v>3.29910398517575</v>
@@ -802,7 +802,7 @@
         <v>3.9337721466442897E-2</v>
       </c>
       <c r="D23">
-        <v>5.1237384549569498</v>
+        <v>4.1276999999999999</v>
       </c>
       <c r="E23">
         <v>3.63345149427369</v>
@@ -819,7 +819,7 @@
         <v>4.9024719241902201E-2</v>
       </c>
       <c r="D24">
-        <v>5.1085062161268802</v>
+        <v>4.0868000000000002</v>
       </c>
       <c r="E24">
         <v>3.4515059921703801</v>
@@ -836,7 +836,7 @@
         <v>5.7429363628031603E-2</v>
       </c>
       <c r="D25">
-        <v>5.0873862516428199</v>
+        <v>4.0448000000000004</v>
       </c>
       <c r="E25">
         <v>3.2607373273460798</v>
@@ -853,7 +853,7 @@
         <v>5.71740161082705E-3</v>
       </c>
       <c r="D26">
-        <v>5.0534309009518203</v>
+        <v>4.0019</v>
       </c>
       <c r="E26">
         <v>2.7221721474539899</v>
@@ -870,7 +870,7 @@
         <v>-5.4674043679068599E-3</v>
       </c>
       <c r="D27">
-        <v>4.8299539517700296</v>
+        <v>3.9668999999999999</v>
       </c>
       <c r="E27">
         <v>2.3855966375631401</v>
@@ -887,7 +887,7 @@
         <v>2.1424059894470101E-2</v>
       </c>
       <c r="D28">
-        <v>4.85185582470264</v>
+        <v>3.9283999999999999</v>
       </c>
       <c r="E28">
         <v>2.3500053933532898</v>
@@ -904,7 +904,7 @@
         <v>3.9912123083855999E-2</v>
       </c>
       <c r="D29">
-        <v>4.7817678767252998</v>
+        <v>3.8894000000000002</v>
       </c>
       <c r="E29">
         <v>2.40678495786528</v>
@@ -921,7 +921,7 @@
         <v>7.7750258468607697E-2</v>
       </c>
       <c r="D30">
-        <v>5.00338014653902</v>
+        <v>3.8361000000000001</v>
       </c>
       <c r="E30">
         <v>2.7918007873823898</v>
@@ -938,7 +938,7 @@
         <v>8.9669226553245399E-2</v>
       </c>
       <c r="D31">
-        <v>5.0654007436974702</v>
+        <v>3.7764000000000002</v>
       </c>
       <c r="E31">
         <v>3.1807035263563002</v>
@@ -955,7 +955,7 @@
         <v>7.2217389055524495E-2</v>
       </c>
       <c r="D32">
-        <v>4.9311537204071003</v>
+        <v>3.7195</v>
       </c>
       <c r="E32">
         <v>3.2007362277140601</v>
@@ -972,7 +972,7 @@
         <v>6.4756515622145294E-2</v>
       </c>
       <c r="D33">
-        <v>4.7783574180023196</v>
+        <v>3.6657000000000002</v>
       </c>
       <c r="E33">
         <v>3.01407053154094</v>
@@ -989,7 +989,7 @@
         <v>4.64807751328166E-2</v>
       </c>
       <c r="D34">
-        <v>4.9051680299921898</v>
+        <v>3.6021999999999998</v>
       </c>
       <c r="E34">
         <v>2.8753230592284398</v>
@@ -1006,7 +1006,7 @@
         <v>4.3494153517006001E-2</v>
       </c>
       <c r="D35">
-        <v>4.71395615418208</v>
+        <v>3.5461999999999998</v>
       </c>
       <c r="E35">
         <v>2.7810534062066399</v>
@@ -1023,7 +1023,7 @@
         <v>2.58615449923668E-2</v>
       </c>
       <c r="D36">
-        <v>4.6689003556244097</v>
+        <v>3.4916999999999998</v>
       </c>
       <c r="E36">
         <v>2.4205640425517498</v>
@@ -1040,7 +1040,7 @@
         <v>9.4576697037060207E-3</v>
       </c>
       <c r="D37">
-        <v>4.3921347818429801</v>
+        <v>3.4508000000000001</v>
       </c>
       <c r="E37">
         <v>1.81552919385365</v>
@@ -1057,7 +1057,7 @@
         <v>-2.0664246777468601E-2</v>
       </c>
       <c r="D38">
-        <v>4.2504047047911104</v>
+        <v>3.4159000000000002</v>
       </c>
       <c r="E38">
         <v>0.99684904736875501</v>
@@ -1074,7 +1074,7 @@
         <v>-2.4955083156930499E-2</v>
       </c>
       <c r="D39">
-        <v>4.1758041514969104</v>
+        <v>3.3839999999999999</v>
       </c>
       <c r="E39">
         <v>0.421433852333507</v>
@@ -1091,7 +1091,7 @@
         <v>-2.9379558157900599E-2</v>
       </c>
       <c r="D40">
-        <v>4.2371623891288603</v>
+        <v>3.3496999999999999</v>
       </c>
       <c r="E40">
         <v>0.116284446241252</v>
@@ -1108,7 +1108,7 @@
         <v>1.4050893743974601E-2</v>
       </c>
       <c r="D41">
-        <v>3.8308598532207698</v>
+        <v>3.3351999999999999</v>
       </c>
       <c r="E41">
         <v>-7.3047244570489098E-2</v>
@@ -1125,7 +1125,7 @@
         <v>2.6441230456075299E-2</v>
       </c>
       <c r="D42">
-        <v>4.2956190291948797</v>
+        <v>3.2974999999999999</v>
       </c>
       <c r="E42">
         <v>4.3731977854804399E-2</v>
@@ -1142,7 +1142,7 @@
         <v>-1.0410023874217999E-2</v>
       </c>
       <c r="D43">
-        <v>4.0496528905043201</v>
+        <v>3.2717000000000001</v>
       </c>
       <c r="E43">
         <v>0.29924377378665701</v>
@@ -1159,7 +1159,7 @@
         <v>-7.3543121788791799E-2</v>
       </c>
       <c r="D44">
-        <v>3.9077076180308699</v>
+        <v>3.2515999999999998</v>
       </c>
       <c r="E44">
         <v>0.30502412914108801</v>
@@ -1176,7 +1176,7 @@
         <v>-0.20010431883899299</v>
       </c>
       <c r="D45">
-        <v>3.6153048751393002</v>
+        <v>3.2404999999999999</v>
       </c>
       <c r="E45">
         <v>-0.10927868993997</v>
@@ -1193,7 +1193,7 @@
         <v>-0.137323699514495</v>
       </c>
       <c r="D46">
-        <v>3.8361411779018799</v>
+        <v>3.2170999999999998</v>
       </c>
       <c r="E46">
         <v>0.42239669738910401</v>
@@ -1210,7 +1210,7 @@
         <v>-0.19333794504110299</v>
       </c>
       <c r="D47">
-        <v>3.99228345180647</v>
+        <v>3.1821000000000002</v>
       </c>
       <c r="E47">
         <v>0.78641261827863196</v>
@@ -1227,7 +1227,7 @@
         <v>-0.19805107775773101</v>
       </c>
       <c r="D48">
-        <v>3.8611035694476499</v>
+        <v>3.1505000000000001</v>
       </c>
       <c r="E48">
         <v>1.24379051235803</v>
@@ -1244,7 +1244,7 @@
         <v>-0.227571134303094</v>
       </c>
       <c r="D49">
-        <v>3.95191264707347</v>
+        <v>3.109</v>
       </c>
       <c r="E49">
         <v>1.4357915248962201</v>
@@ -1261,7 +1261,7 @@
         <v>-0.21584338486295901</v>
       </c>
       <c r="D50">
-        <v>4.2284114693424302</v>
+        <v>3.0508999999999999</v>
       </c>
       <c r="E50">
         <v>1.94874032278472</v>
@@ -1278,7 +1278,7 @@
         <v>-5.2176770873574002E-2</v>
       </c>
       <c r="D51">
-        <v>4.2876544192073203</v>
+        <v>2.9941</v>
       </c>
       <c r="E51">
         <v>2.8741315963579801</v>
@@ -1295,7 +1295,7 @@
         <v>-3.8612961959470803E-2</v>
       </c>
       <c r="D52">
-        <v>3.9943914465691601</v>
+        <v>2.9516</v>
       </c>
       <c r="E52">
         <v>2.5701139645011599</v>
@@ -1312,7 +1312,7 @@
         <v>1.3312452819844301E-2</v>
       </c>
       <c r="D53">
-        <v>4.1815403870757004</v>
+        <v>2.9022000000000001</v>
       </c>
       <c r="E53">
         <v>2.22063878859728</v>
@@ -1329,7 +1329,7 @@
         <v>9.5914288056518998E-2</v>
       </c>
       <c r="D54">
-        <v>3.9556547342925699</v>
+        <v>2.8677999999999999</v>
       </c>
       <c r="E54">
         <v>1.81052365874473</v>
@@ -1346,7 +1346,7 @@
         <v>0.33136855579396501</v>
       </c>
       <c r="D55">
-        <v>4.1405800600045204</v>
+        <v>2.8346</v>
       </c>
       <c r="E55">
         <v>1.98981951338703</v>
@@ -1363,7 +1363,7 @@
         <v>0.49453667234119902</v>
       </c>
       <c r="D56">
-        <v>3.9753404108096499</v>
+        <v>2.8191999999999999</v>
       </c>
       <c r="E56">
         <v>1.8591048001796899</v>
@@ -1380,7 +1380,7 @@
         <v>0.453820699500812</v>
       </c>
       <c r="D57">
-        <v>3.8474361886980701</v>
+        <v>2.8151000000000002</v>
       </c>
       <c r="E57">
         <v>0.90445614657357998</v>
@@ -1397,7 +1397,7 @@
         <v>0.29128131898704601</v>
       </c>
       <c r="D58">
-        <v>3.3911524787204299</v>
+        <v>2.8323999999999998</v>
       </c>
       <c r="E58">
         <v>-0.39113888825124798</v>
@@ -1414,7 +1414,7 @@
         <v>0.111565020848304</v>
       </c>
       <c r="D59">
-        <v>3.30431540846822</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="E59">
         <v>-1.2007651745077501</v>
@@ -1431,7 +1431,7 @@
         <v>3.2810584158904699E-2</v>
       </c>
       <c r="D60">
-        <v>3.35444045495945</v>
+        <v>2.8561999999999999</v>
       </c>
       <c r="E60">
         <v>-0.92287389481634796</v>
@@ -1448,7 +1448,7 @@
         <v>3.21587523182294E-2</v>
       </c>
       <c r="D61">
-        <v>3.3143691360570502</v>
+        <v>2.8633000000000002</v>
       </c>
       <c r="E61">
         <v>-0.19197346503381099</v>
@@ -1465,7 +1465,7 @@
         <v>7.8379239667321406E-3</v>
       </c>
       <c r="D62">
-        <v>3.4781360955305902</v>
+        <v>2.8605</v>
       </c>
       <c r="E62">
         <v>0.50589465788334598</v>
@@ -1482,7 +1482,7 @@
         <v>-0.109051501480371</v>
       </c>
       <c r="D63">
-        <v>3.2149694221232901</v>
+        <v>2.8679999999999999</v>
       </c>
       <c r="E63">
         <v>0.71558468782654905</v>
@@ -1499,7 +1499,7 @@
         <v>-4.45260461212185E-2</v>
       </c>
       <c r="D64">
-        <v>3.1278976181844702</v>
+        <v>2.8832</v>
       </c>
       <c r="E64">
         <v>1.2425753458008999</v>
@@ -1516,7 +1516,7 @@
         <v>-4.0959698054664102E-2</v>
       </c>
       <c r="D65">
-        <v>3.08239366142316</v>
+        <v>2.9018000000000002</v>
       </c>
       <c r="E65">
         <v>1.43649167193621</v>
@@ -1533,7 +1533,7 @@
         <v>2.83177193275835E-3</v>
       </c>
       <c r="D66">
-        <v>3.1699313933947302</v>
+        <v>2.9182000000000001</v>
       </c>
       <c r="E66">
         <v>1.84367087020053</v>
@@ -1550,7 +1550,7 @@
         <v>-2.0758301261897202E-2</v>
       </c>
       <c r="D67">
-        <v>3.3427037033390601</v>
+        <v>2.9260000000000002</v>
       </c>
       <c r="E67">
         <v>2.2393784542225599</v>
@@ -1567,7 +1567,7 @@
         <v>6.6646604287691298E-3</v>
       </c>
       <c r="D68">
-        <v>3.4761439404421202</v>
+        <v>2.9302999999999999</v>
       </c>
       <c r="E68">
         <v>2.9213793748043599</v>
@@ -1584,7 +1584,7 @@
         <v>-9.0695364810250298E-2</v>
       </c>
       <c r="D69">
-        <v>3.13926727089915</v>
+        <v>2.9496000000000002</v>
       </c>
       <c r="E69">
         <v>2.8173409105276099</v>
@@ -1601,7 +1601,7 @@
         <v>-9.8213739728402805E-2</v>
       </c>
       <c r="D70">
-        <v>3.0516267112492801</v>
+        <v>2.9702999999999999</v>
       </c>
       <c r="E70">
         <v>2.6895528796529802</v>
@@ -1618,7 +1618,7 @@
         <v>-1.22735056627216E-2</v>
       </c>
       <c r="D71">
-        <v>3.8035720179077899</v>
+        <v>2.9548000000000001</v>
       </c>
       <c r="E71">
         <v>3.4228118918820201</v>
@@ -1635,7 +1635,7 @@
         <v>-3.0079861225712101E-2</v>
       </c>
       <c r="D72">
-        <v>3.69150739844773</v>
+        <v>2.9437000000000002</v>
       </c>
       <c r="E72">
         <v>3.87329371839451</v>
@@ -1652,7 +1652,7 @@
         <v>-5.2802705289433398E-3</v>
       </c>
       <c r="D73">
-        <v>3.8024750169401602</v>
+        <v>2.9281000000000001</v>
       </c>
       <c r="E73">
         <v>4.0895395430491099</v>
@@ -1669,7 +1669,7 @@
         <v>-0.17765534611835401</v>
       </c>
       <c r="D74">
-        <v>3.5417908872944199</v>
+        <v>2.9197000000000002</v>
       </c>
       <c r="E74">
         <v>3.3439863434033401</v>
@@ -1686,7 +1686,7 @@
         <v>4.0535281317298701E-2</v>
       </c>
       <c r="D75">
-        <v>3.6380307116813202</v>
+        <v>2.9138000000000002</v>
       </c>
       <c r="E75">
         <v>3.5664530588482002</v>
@@ -1703,7 +1703,7 @@
         <v>-4.07268788385498E-2</v>
       </c>
       <c r="D76">
-        <v>3.67492698554525</v>
+        <v>2.9032</v>
       </c>
       <c r="E76">
         <v>2.8525816070210799</v>
@@ -1720,7 +1720,7 @@
         <v>3.16665966390062E-2</v>
       </c>
       <c r="D77">
-        <v>3.68552747956653</v>
+        <v>2.8959999999999999</v>
       </c>
       <c r="E77">
         <v>2.6552046332919899</v>
@@ -1737,7 +1737,7 @@
         <v>0.171395709086586</v>
       </c>
       <c r="D78">
-        <v>3.8035679234366202</v>
+        <v>2.8910999999999998</v>
       </c>
       <c r="E78">
         <v>2.53301052140012</v>
@@ -1754,7 +1754,7 @@
         <v>8.8754352478879903E-2</v>
       </c>
       <c r="D79">
-        <v>3.26544076125283</v>
+        <v>2.9117999999999999</v>
       </c>
       <c r="E79">
         <v>1.1779958848098899</v>
@@ -1771,7 +1771,7 @@
         <v>8.9636589334527006E-2</v>
       </c>
       <c r="D80">
-        <v>3.3269157620589498</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="E80">
         <v>0.10666837679468701</v>
@@ -1788,7 +1788,7 @@
         <v>0.193232278784258</v>
       </c>
       <c r="D81">
-        <v>3.75095380884457</v>
+        <v>2.9243000000000001</v>
       </c>
       <c r="E81">
         <v>0.223142436535682</v>
@@ -1805,7 +1805,7 @@
         <v>0.14295734605743299</v>
       </c>
       <c r="D82">
-        <v>3.95134418791694</v>
+        <v>2.9077000000000002</v>
       </c>
       <c r="E82">
         <v>0.28737226887244599</v>
@@ -1822,7 +1822,7 @@
         <v>-1.4073592049362E-2</v>
       </c>
       <c r="D83">
-        <v>3.5049135059241299</v>
+        <v>2.9053</v>
       </c>
       <c r="E83">
         <v>-0.56184682582932099</v>
@@ -1839,7 +1839,7 @@
         <v>-5.9337491278272599E-2</v>
       </c>
       <c r="D84">
-        <v>3.7251842065655798</v>
+        <v>2.8892000000000002</v>
       </c>
       <c r="E84">
         <v>-1.2835057657189299</v>
@@ -1856,7 +1856,7 @@
         <v>-0.13274322270569799</v>
       </c>
       <c r="D85">
-        <v>3.3660946433788199</v>
+        <v>2.8887</v>
       </c>
       <c r="E85">
         <v>-2.30950334249053</v>
@@ -1873,7 +1873,7 @@
         <v>-0.28591984117289798</v>
       </c>
       <c r="D86">
-        <v>2.9142906895828302</v>
+        <v>2.9049</v>
       </c>
       <c r="E86">
         <v>-3.8619947870671498</v>
@@ -1890,7 +1890,7 @@
         <v>-0.335253418902341</v>
       </c>
       <c r="D87">
-        <v>2.9905657417860598</v>
+        <v>2.9163999999999999</v>
       </c>
       <c r="E87">
         <v>-4.7198632779274003</v>
@@ -1907,7 +1907,7 @@
         <v>-0.25790436871870498</v>
       </c>
       <c r="D88">
-        <v>2.8855824174625799</v>
+        <v>2.9371</v>
       </c>
       <c r="E88">
         <v>-5.0001376331994196</v>
@@ -1924,7 +1924,7 @@
         <v>-0.29482755832623597</v>
       </c>
       <c r="D89">
-        <v>2.7831023089258</v>
+        <v>2.9621</v>
       </c>
       <c r="E89">
         <v>-5.5040210337666604</v>
@@ -1941,7 +1941,7 @@
         <v>-0.283700954754739</v>
       </c>
       <c r="D90">
-        <v>2.9245836165662098</v>
+        <v>2.9802</v>
       </c>
       <c r="E90">
         <v>-5.3691008993689602</v>
@@ -1958,7 +1958,7 @@
         <v>-0.454684332493826</v>
       </c>
       <c r="D91">
-        <v>3.0251416482854201</v>
+        <v>2.9864000000000002</v>
       </c>
       <c r="E91">
         <v>-5.2438618053173496</v>
@@ -1975,7 +1975,7 @@
         <v>-0.19074857804157699</v>
       </c>
       <c r="D92">
-        <v>3.3297120005518002</v>
+        <v>2.9862000000000002</v>
       </c>
       <c r="E92">
         <v>-3.6597395167267499</v>
@@ -1992,7 +1992,7 @@
         <v>-0.38926932222273802</v>
       </c>
       <c r="D93">
-        <v>3.3162560251384701</v>
+        <v>2.9782000000000002</v>
       </c>
       <c r="E93">
         <v>-3.51549229925183</v>
@@ -2009,7 +2009,7 @@
         <v>-0.31855696028068198</v>
       </c>
       <c r="D94">
-        <v>3.4933686480234898</v>
+        <v>2.9636999999999998</v>
       </c>
       <c r="E94">
         <v>-2.6820578748632902</v>
@@ -2026,7 +2026,7 @@
         <v>-0.22480578162982401</v>
       </c>
       <c r="D95">
-        <v>3.6661198284772198</v>
+        <v>2.9445999999999999</v>
       </c>
       <c r="E95">
         <v>-1.9442680894359201</v>
@@ -2043,7 +2043,7 @@
         <v>-0.29938497835240602</v>
       </c>
       <c r="D96">
-        <v>3.5765138676332402</v>
+        <v>2.9278</v>
       </c>
       <c r="E96">
         <v>-1.96691822027583</v>
@@ -2060,7 +2060,7 @@
         <v>-0.38172843876377999</v>
       </c>
       <c r="D97">
-        <v>3.5126463164272299</v>
+        <v>2.9115000000000002</v>
       </c>
       <c r="E97">
         <v>-2.2711674952057601</v>
@@ -2077,7 +2077,7 @@
         <v>-0.134829638176897</v>
       </c>
       <c r="D98">
-        <v>3.7533615496477899</v>
+        <v>2.8921000000000001</v>
       </c>
       <c r="E98">
         <v>-1.66535745559941</v>
@@ -2094,7 +2094,7 @@
         <v>-0.269609868040386</v>
       </c>
       <c r="D99">
-        <v>3.6499004800733101</v>
+        <v>2.8717000000000001</v>
       </c>
       <c r="E99">
         <v>-2.06769422208811</v>
@@ -2111,7 +2111,7 @@
         <v>-0.195571714030532</v>
       </c>
       <c r="D100">
-        <v>3.8291718481314398</v>
+        <v>2.8445</v>
       </c>
       <c r="E100">
         <v>-1.69510668811677</v>
@@ -2128,7 +2128,7 @@
         <v>-0.309887743433438</v>
       </c>
       <c r="D101">
-        <v>3.6528838918804998</v>
+        <v>2.8208000000000002</v>
       </c>
       <c r="E101">
         <v>-1.8656364757705399</v>
@@ -2145,7 +2145,7 @@
         <v>-0.19202414145486801</v>
       </c>
       <c r="D102">
-        <v>3.7334455840368301</v>
+        <v>2.7966000000000002</v>
       </c>
       <c r="E102">
         <v>-1.4587070339932799</v>
@@ -2162,7 +2162,7 @@
         <v>-0.328401176084403</v>
       </c>
       <c r="D103">
-        <v>3.5151359506488702</v>
+        <v>2.7768000000000002</v>
       </c>
       <c r="E103">
         <v>-1.8647825234191899</v>
@@ -2179,7 +2179,7 @@
         <v>-0.34580469498095201</v>
       </c>
       <c r="D104">
-        <v>3.51744762428044</v>
+        <v>2.7553000000000001</v>
       </c>
       <c r="E104">
         <v>-1.89763548136864</v>
@@ -2196,7 +2196,7 @@
         <v>-0.30076586720547099</v>
       </c>
       <c r="D105">
-        <v>3.4487788422368499</v>
+        <v>2.738</v>
       </c>
       <c r="E105">
         <v>-1.71901544878665</v>
@@ -2213,7 +2213,7 @@
         <v>-0.36797344017907901</v>
       </c>
       <c r="D106">
-        <v>3.3520298629593102</v>
+        <v>2.7212999999999998</v>
       </c>
       <c r="E106">
         <v>-1.8546746774452501</v>
@@ -2230,7 +2230,7 @@
         <v>-0.217726541997072</v>
       </c>
       <c r="D107">
-        <v>3.49635652453843</v>
+        <v>2.7019000000000002</v>
       </c>
       <c r="E107">
         <v>-1.30856170091988</v>
@@ -2247,7 +2247,7 @@
         <v>-0.20721568789162301</v>
       </c>
       <c r="D108">
-        <v>3.4775391797562998</v>
+        <v>2.6819000000000002</v>
       </c>
       <c r="E108">
         <v>-1.1581296839912101</v>
@@ -2264,7 +2264,7 @@
         <v>-0.11515846403798401</v>
       </c>
       <c r="D109">
-        <v>3.7170473497713599</v>
+        <v>2.6524999999999999</v>
       </c>
       <c r="E109">
         <v>-0.67482754139541601</v>
@@ -2281,7 +2281,7 @@
         <v>-0.11789186849871799</v>
       </c>
       <c r="D110">
-        <v>3.58470513856083</v>
+        <v>2.6284999999999998</v>
       </c>
       <c r="E110">
         <v>-0.54330604997699095</v>
@@ -2298,7 +2298,7 @@
         <v>2.4806542369336798E-3</v>
       </c>
       <c r="D111">
-        <v>3.7735111060157598</v>
+        <v>2.5988000000000002</v>
       </c>
       <c r="E111">
         <v>-0.105405659036478</v>
@@ -2315,7 +2315,7 @@
         <v>2.8067816825869301E-3</v>
       </c>
       <c r="D112">
-        <v>3.6832099203670401</v>
+        <v>2.5720999999999998</v>
       </c>
       <c r="E112">
         <v>-3.37661988767195E-2</v>
@@ -2332,7 +2332,7 @@
         <v>1.29544219111297E-2</v>
       </c>
       <c r="D113">
-        <v>3.8011828490176098</v>
+        <v>2.5381</v>
       </c>
       <c r="E113">
         <v>6.1072287849924599E-2</v>
@@ -2349,7 +2349,7 @@
         <v>2.51233469462742E-3</v>
       </c>
       <c r="D114">
-        <v>3.81223901442528</v>
+        <v>2.5011999999999999</v>
       </c>
       <c r="E114">
         <v>0.107716587078016</v>
@@ -2366,7 +2366,7 @@
         <v>-9.0624218545030194E-2</v>
       </c>
       <c r="D115">
-        <v>3.7236382203447702</v>
+        <v>2.4626999999999999</v>
       </c>
       <c r="E115">
         <v>-0.19739063009410501</v>
@@ -2383,7 +2383,7 @@
         <v>-0.19360103896992401</v>
       </c>
       <c r="D116">
-        <v>3.6481743216079598</v>
+        <v>2.4216000000000002</v>
       </c>
       <c r="E116">
         <v>-0.631842321049362</v>
@@ -2400,7 +2400,7 @@
         <v>-0.159702165940522</v>
       </c>
       <c r="D117">
-        <v>3.5702310659060101</v>
+        <v>2.3824000000000001</v>
       </c>
       <c r="E117">
         <v>-0.81821122949452296</v>
@@ -2417,7 +2417,7 @@
         <v>-3.6632973715593702E-2</v>
       </c>
       <c r="D118">
-        <v>3.78175183553935</v>
+        <v>2.335</v>
       </c>
       <c r="E118">
         <v>-0.68023770805984896</v>
@@ -2434,7 +2434,7 @@
         <v>-1.1934614382231101E-2</v>
       </c>
       <c r="D119">
-        <v>3.709991830286</v>
+        <v>2.2915000000000001</v>
       </c>
       <c r="E119">
         <v>-0.77236200674406097</v>
@@ -2451,7 +2451,7 @@
         <v>-4.0756892064387498E-2</v>
       </c>
       <c r="D120">
-        <v>3.55395493704073</v>
+        <v>2.2561</v>
       </c>
       <c r="E120">
         <v>-1.1238748732552</v>
@@ -2468,7 +2468,7 @@
         <v>-0.14176438257302901</v>
       </c>
       <c r="D121">
-        <v>3.14541071650449</v>
+        <v>2.2385999999999999</v>
       </c>
       <c r="E121">
         <v>-1.8787803488421599</v>
@@ -2485,7 +2485,7 @@
         <v>-0.15643949534941701</v>
       </c>
       <c r="D122">
-        <v>2.9540367594990302</v>
+        <v>2.23</v>
       </c>
       <c r="E122">
         <v>-2.4512379741613599</v>
@@ -2502,7 +2502,7 @@
         <v>-0.195493188064359</v>
       </c>
       <c r="D123">
-        <v>2.9880485554845899</v>
+        <v>2.218</v>
       </c>
       <c r="E123">
         <v>-2.7353298706934801</v>
@@ -2519,7 +2519,7 @@
         <v>-0.14057993507321501</v>
       </c>
       <c r="D124">
-        <v>2.9524041977047699</v>
+        <v>2.2103000000000002</v>
       </c>
       <c r="E124">
         <v>-2.5067685170805598</v>
@@ -2536,7 +2536,7 @@
         <v>-0.167227773661941</v>
       </c>
       <c r="D125">
-        <v>2.8142172382073398</v>
+        <v>2.2084000000000001</v>
       </c>
       <c r="E125">
         <v>-2.4887547950972899</v>
@@ -2553,7 +2553,7 @@
         <v>-0.158725640842416</v>
       </c>
       <c r="D126">
-        <v>2.8903070485654201</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="E126">
         <v>-2.21864096229706</v>
@@ -2570,7 +2570,7 @@
         <v>-0.17409536669688899</v>
       </c>
       <c r="D127">
-        <v>2.8704233983379801</v>
+        <v>2.1983999999999999</v>
       </c>
       <c r="E127">
         <v>-1.8461508379524501</v>
@@ -2587,7 +2587,7 @@
         <v>-0.23048974409950901</v>
       </c>
       <c r="D128">
-        <v>2.7887755250424502</v>
+        <v>2.1966999999999999</v>
       </c>
       <c r="E128">
         <v>-1.56615528404939</v>
@@ -2604,7 +2604,7 @@
         <v>-0.174177504248407</v>
       </c>
       <c r="D129">
-        <v>2.8155823888715701</v>
+        <v>2.1981000000000002</v>
       </c>
       <c r="E129">
         <v>-0.99774073235812499</v>
@@ -2621,7 +2621,7 @@
         <v>-0.19674492634806401</v>
       </c>
       <c r="D130">
-        <v>2.5960381830239401</v>
+        <v>2.2124000000000001</v>
       </c>
       <c r="E130">
         <v>-0.80393387942763195</v>
@@ -2638,7 +2638,7 @@
         <v>-0.15935425460845201</v>
       </c>
       <c r="D131">
-        <v>2.5700457421987402</v>
+        <v>2.2323</v>
       </c>
       <c r="E131">
         <v>-0.54780903685752902</v>
@@ -2655,7 +2655,7 @@
         <v>-0.24466445702604001</v>
       </c>
       <c r="D132">
-        <v>2.4198946570985398</v>
+        <v>2.2585999999999999</v>
       </c>
       <c r="E132">
         <v>-0.60591961002785399</v>
@@ -2672,7 +2672,7 @@
         <v>-0.27378716914887002</v>
       </c>
       <c r="D133">
-        <v>2.5105551134889299</v>
+        <v>2.2812000000000001</v>
       </c>
       <c r="E133">
         <v>-0.37201462863447399</v>
@@ -2689,7 +2689,7 @@
         <v>-0.322659086770474</v>
       </c>
       <c r="D134">
-        <v>2.4599850355890802</v>
+        <v>2.3060999999999998</v>
       </c>
       <c r="E134">
         <v>-0.124877263709209</v>
@@ -2706,7 +2706,7 @@
         <v>-0.23348445046580599</v>
       </c>
       <c r="D135">
-        <v>2.6219758720336501</v>
+        <v>2.3287</v>
       </c>
       <c r="E135">
         <v>0.47650270827227797</v>
@@ -2723,7 +2723,7 @@
         <v>-0.27534420975047103</v>
       </c>
       <c r="D136">
-        <v>2.5132005911575201</v>
+        <v>2.3569</v>
       </c>
       <c r="E136">
         <v>0.58628260377827202</v>
@@ -2740,7 +2740,7 @@
         <v>-0.29351181201952098</v>
       </c>
       <c r="D137">
-        <v>2.5972953635010398</v>
+        <v>2.3826999999999998</v>
       </c>
       <c r="E137">
         <v>0.66746849564367505</v>
@@ -2757,7 +2757,7 @@
         <v>-0.307175344658907</v>
       </c>
       <c r="D138">
-        <v>2.5078285302700598</v>
+        <v>2.4152</v>
       </c>
       <c r="E138">
         <v>0.62678715749063896</v>
@@ -2774,7 +2774,7 @@
         <v>-0.29235086792258602</v>
       </c>
       <c r="D139">
-        <v>2.4807112110582201</v>
+        <v>2.4514</v>
       </c>
       <c r="E139">
         <v>0.47090802109403301</v>
@@ -2791,7 +2791,7 @@
         <v>-0.33557366365518299</v>
       </c>
       <c r="D140">
-        <v>2.5456741674935999</v>
+        <v>2.4843999999999999</v>
       </c>
       <c r="E140">
         <v>0.19503995009688399</v>
@@ -2808,7 +2808,7 @@
         <v>-0.33076724225801901</v>
       </c>
       <c r="D141">
-        <v>2.5830323962819799</v>
+        <v>2.5169000000000001</v>
       </c>
       <c r="E141">
         <v>0.100834445549026</v>
@@ -2825,7 +2825,7 @@
         <v>-0.38531554631021098</v>
       </c>
       <c r="D142">
-        <v>2.5842287310694401</v>
+        <v>2.5474000000000001</v>
       </c>
       <c r="E142">
         <v>-0.12891234916071401</v>
@@ -2842,7 +2842,7 @@
         <v>-0.34309039168908401</v>
       </c>
       <c r="D143">
-        <v>2.8477148026949801</v>
+        <v>2.5665</v>
       </c>
       <c r="E143">
         <v>8.45918442876155E-2</v>
@@ -2859,7 +2859,7 @@
         <v>-0.351099832491368</v>
       </c>
       <c r="D144">
-        <v>2.8491235451713499</v>
+        <v>2.5853999999999999</v>
       </c>
       <c r="E144">
         <v>0.200659330344479</v>
@@ -2876,7 +2876,7 @@
         <v>-0.289682244434951</v>
       </c>
       <c r="D145">
-        <v>2.9645573490677801</v>
+        <v>2.6013000000000002</v>
       </c>
       <c r="E145">
         <v>0.41212324256503102</v>
@@ -2893,7 +2893,7 @@
         <v>-0.36268297552275403</v>
       </c>
       <c r="D146">
-        <v>2.8860334421444001</v>
+        <v>2.6175000000000002</v>
       </c>
       <c r="E146">
         <v>0.201988711019567</v>
@@ -2910,7 +2910,7 @@
         <v>-0.29835915126315798</v>
       </c>
       <c r="D147">
-        <v>3.1531430941567402</v>
+        <v>2.6219000000000001</v>
       </c>
       <c r="E147">
         <v>0.45962321008232698</v>
@@ -2927,7 +2927,7 @@
         <v>-0.43107230037495498</v>
       </c>
       <c r="D148">
-        <v>3.1197854943275001</v>
+        <v>2.6217999999999999</v>
       </c>
       <c r="E148">
         <v>0.29412215205218201</v>
@@ -2944,7 +2944,7 @@
         <v>-0.43287697608353898</v>
       </c>
       <c r="D149">
-        <v>3.11635532619179</v>
+        <v>2.6204999999999998</v>
       </c>
       <c r="E149">
         <v>0.33887762749293399</v>
@@ -2961,7 +2961,7 @@
         <v>-0.452522423565065</v>
       </c>
       <c r="D150">
-        <v>3.15689719052643</v>
+        <v>2.6147</v>
       </c>
       <c r="E150">
         <v>0.26473533183752801</v>
@@ -2978,7 +2978,7 @@
         <v>-0.45538929559436597</v>
       </c>
       <c r="D151">
-        <v>3.1924794867989501</v>
+        <v>2.6046</v>
       </c>
       <c r="E151">
         <v>0.212890777410848</v>
@@ -2995,7 +2995,7 @@
         <v>-0.41970559162013998</v>
       </c>
       <c r="D152">
-        <v>3.3340475859976899</v>
+        <v>2.5855000000000001</v>
       </c>
       <c r="E152">
         <v>0.29533625587669099</v>
@@ -3012,7 +3012,7 @@
         <v>-0.41619920942875299</v>
       </c>
       <c r="D153">
-        <v>3.50465873731748</v>
+        <v>2.5550999999999999</v>
       </c>
       <c r="E153">
         <v>0.407482053415606</v>
@@ -3029,7 +3029,7 @@
         <v>-0.45539124615556298</v>
       </c>
       <c r="D154">
-        <v>3.4645530859606799</v>
+        <v>2.5224000000000002</v>
       </c>
       <c r="E154">
         <v>0.38233924943335801</v>
@@ -3046,7 +3046,7 @@
         <v>-0.42421358690359501</v>
       </c>
       <c r="D155">
-        <v>3.4799352899748501</v>
+        <v>2.4864999999999999</v>
       </c>
       <c r="E155">
         <v>0.43780182266471002</v>
@@ -3063,7 +3063,7 @@
         <v>-0.402899068271308</v>
       </c>
       <c r="D156">
-        <v>3.6022805991576501</v>
+        <v>2.4411</v>
       </c>
       <c r="E156">
         <v>0.52019499721472995</v>
@@ -3080,7 +3080,7 @@
         <v>-0.330937604531098</v>
       </c>
       <c r="D157">
-        <v>3.8094580776442499</v>
+        <v>2.3847999999999998</v>
       </c>
       <c r="E157">
         <v>0.85114747686770897</v>
@@ -3097,7 +3097,7 @@
         <v>-0.30300508500562801</v>
       </c>
       <c r="D158">
-        <v>3.68891373093581</v>
+        <v>2.3311999999999999</v>
       </c>
       <c r="E158">
         <v>0.88622241228586096</v>
@@ -3114,7 +3114,7 @@
         <v>-0.35781378746475401</v>
       </c>
       <c r="D159">
-        <v>3.8782519829815998</v>
+        <v>2.2625999999999999</v>
       </c>
       <c r="E159">
         <v>0.754289830181051</v>
@@ -3131,7 +3131,7 @@
         <v>-0.33440410777045798</v>
       </c>
       <c r="D160">
-        <v>3.7020484043068902</v>
+        <v>2.2006000000000001</v>
       </c>
       <c r="E160">
         <v>0.693684308077536</v>
@@ -3148,7 +3148,7 @@
         <v>-0.32809749420541301</v>
       </c>
       <c r="D161">
-        <v>3.7036120254284</v>
+        <v>2.1364000000000001</v>
       </c>
       <c r="E161">
         <v>0.39942438495393201</v>
@@ -3165,7 +3165,7 @@
         <v>-0.26766976603374198</v>
       </c>
       <c r="D162">
-        <v>3.54268149579601</v>
+        <v>2.08</v>
       </c>
       <c r="E162">
         <v>0.10433417763965699</v>
@@ -3182,7 +3182,7 @@
         <v>-0.36986149126322898</v>
       </c>
       <c r="D163">
-        <v>3.49358989702709</v>
+        <v>2.0205000000000002</v>
       </c>
       <c r="E163">
         <v>-0.52619173317873402</v>
@@ -3199,7 +3199,7 @@
         <v>-0.47370643691192998</v>
       </c>
       <c r="D164">
-        <v>3.1550806687744202</v>
+        <v>1.9721</v>
       </c>
       <c r="E164">
         <v>-1.1004430819248201</v>
@@ -3216,7 +3216,7 @@
         <v>-0.400318558487606</v>
       </c>
       <c r="D165">
-        <v>3.1316034207782102</v>
+        <v>1.9256</v>
       </c>
       <c r="E165">
         <v>-1.15195453708941</v>
@@ -3233,7 +3233,7 @@
         <v>-0.46862785781713001</v>
       </c>
       <c r="D166">
-        <v>3.0701920669094198</v>
+        <v>1.8775999999999999</v>
       </c>
       <c r="E166">
         <v>-1.2717399054188301</v>
@@ -3250,7 +3250,7 @@
         <v>-0.35167196743738899</v>
       </c>
       <c r="D167">
-        <v>3.0619331966895298</v>
+        <v>1.8335999999999999</v>
       </c>
       <c r="E167">
         <v>-0.78072153207529005</v>
@@ -3267,7 +3267,7 @@
         <v>-0.33429329244724199</v>
       </c>
       <c r="D168">
-        <v>2.93657268985194</v>
+        <v>1.7963</v>
       </c>
       <c r="E168">
         <v>-0.57788313424748605</v>
@@ -3284,7 +3284,7 @@
         <v>-0.42122945050366201</v>
       </c>
       <c r="D169">
-        <v>2.6821341907987799</v>
+        <v>1.7678</v>
       </c>
       <c r="E169">
         <v>-0.71685184073692199</v>
@@ -3301,7 +3301,7 @@
         <v>-0.46318614170615202</v>
       </c>
       <c r="D170">
-        <v>2.5717363183687101</v>
+        <v>1.742</v>
       </c>
       <c r="E170">
         <v>-0.71252675142704902</v>
@@ -3318,7 +3318,7 @@
         <v>-0.44882791033689901</v>
       </c>
       <c r="D171">
-        <v>2.56929098141579</v>
+        <v>1.7148000000000001</v>
       </c>
       <c r="E171">
         <v>-0.43217031154904401</v>
@@ -3335,7 +3335,7 @@
         <v>-0.39529121319108601</v>
       </c>
       <c r="D172">
-        <v>2.7465706164066201</v>
+        <v>1.6789000000000001</v>
       </c>
       <c r="E172">
         <v>0.15475957693217901</v>
@@ -3352,7 +3352,7 @@
         <v>-0.38413696179171702</v>
       </c>
       <c r="D173">
-        <v>2.74164685165931</v>
+        <v>1.6424000000000001</v>
       </c>
       <c r="E173">
         <v>0.67457612053613003</v>
@@ -3369,7 +3369,7 @@
         <v>-0.33953510712519802</v>
       </c>
       <c r="D174">
-        <v>2.6593216129639399</v>
+        <v>1.6109</v>
       </c>
       <c r="E174">
         <v>1.09038665758817</v>
@@ -3386,7 +3386,7 @@
         <v>-0.32309114663927202</v>
       </c>
       <c r="D175">
-        <v>2.64189906519724</v>
+        <v>1.5794999999999999</v>
       </c>
       <c r="E175">
         <v>1.33775183826162</v>
@@ -3403,7 +3403,7 @@
         <v>-0.43315272906263602</v>
       </c>
       <c r="D176">
-        <v>2.5583775710119401</v>
+        <v>1.5461</v>
       </c>
       <c r="E176">
         <v>1.31035601574501</v>
@@ -3420,7 +3420,7 @@
         <v>-0.37587045896710303</v>
       </c>
       <c r="D177">
-        <v>2.6214573308918601</v>
+        <v>1.5098</v>
       </c>
       <c r="E177">
         <v>1.7239810789508301</v>
@@ -3437,7 +3437,7 @@
         <v>-0.29368717368026198</v>
       </c>
       <c r="D178">
-        <v>2.7318234980782501</v>
+        <v>1.4694</v>
       </c>
       <c r="E178">
         <v>2.18341957223174</v>
@@ -3454,7 +3454,7 @@
         <v>-0.40071390941634399</v>
       </c>
       <c r="D179">
-        <v>2.5625560516066899</v>
+        <v>1.4311</v>
       </c>
       <c r="E179">
         <v>2.0331740997319199</v>
@@ -3471,7 +3471,7 @@
         <v>-0.48258818776269802</v>
       </c>
       <c r="D180">
-        <v>2.5175469556641001</v>
+        <v>1.3893</v>
       </c>
       <c r="E180">
         <v>1.85400812380931</v>
@@ -3488,7 +3488,7 @@
         <v>-0.38987107335976701</v>
       </c>
       <c r="D181">
-        <v>2.56812005447259</v>
+        <v>1.3452</v>
       </c>
       <c r="E181">
         <v>2.0494863278788702</v>
@@ -3505,7 +3505,7 @@
         <v>-0.41871945830236001</v>
       </c>
       <c r="D182">
-        <v>2.7092276781937499</v>
+        <v>1.2899</v>
       </c>
       <c r="E182">
         <v>2.0147499488823502</v>
@@ -3522,7 +3522,7 @@
         <v>-0.32773930170469101</v>
       </c>
       <c r="D183">
-        <v>2.6830137841992099</v>
+        <v>1.2366999999999999</v>
       </c>
       <c r="E183">
         <v>2.1678563248729001</v>
@@ -3539,7 +3539,7 @@
         <v>-0.450276471478193</v>
       </c>
       <c r="D184">
-        <v>2.5169381735248</v>
+        <v>1.1831</v>
       </c>
       <c r="E184">
         <v>1.58145286632703</v>
@@ -3556,7 +3556,7 @@
         <v>-0.53479390455012599</v>
       </c>
       <c r="D185">
-        <v>2.5506083522247498</v>
+        <v>1.1206</v>
       </c>
       <c r="E185">
         <v>1.1627803443543601</v>
@@ -3573,7 +3573,7 @@
         <v>-0.452897243011123</v>
       </c>
       <c r="D186">
-        <v>2.5639421791188699</v>
+        <v>1.0565</v>
       </c>
       <c r="E186">
         <v>1.1661531628653801</v>
@@ -3590,7 +3590,7 @@
         <v>-0.58665465246724402</v>
       </c>
       <c r="D187">
-        <v>2.48869392686131</v>
+        <v>0.98609999999999998</v>
       </c>
       <c r="E187">
         <v>0.63073328435223197</v>
@@ -3607,7 +3607,7 @@
         <v>-0.57725250178417897</v>
       </c>
       <c r="D188">
-        <v>2.50631105231896</v>
+        <v>0.91069999999999995</v>
       </c>
       <c r="E188">
         <v>0.49029682710397499</v>
@@ -3624,7 +3624,7 @@
         <v>-0.47714374433201201</v>
       </c>
       <c r="D189">
-        <v>2.6075857902758002</v>
+        <v>0.83089999999999997</v>
       </c>
       <c r="E189">
         <v>0.58647773677955695</v>
@@ -3641,7 +3641,7 @@
         <v>-0.56349616949152004</v>
       </c>
       <c r="D190">
-        <v>2.31805117624309</v>
+        <v>0.75870000000000004</v>
       </c>
       <c r="E190">
         <v>7.7620481984581602E-2</v>
@@ -3658,7 +3658,7 @@
         <v>-0.61932463161365803</v>
       </c>
       <c r="D191">
-        <v>2.31050060291662</v>
+        <v>0.68320000000000003</v>
       </c>
       <c r="E191">
         <v>-0.26664343477193603</v>
@@ -3675,7 +3675,7 @@
         <v>-0.620623128932562</v>
       </c>
       <c r="D192">
-        <v>2.0401008707252899</v>
+        <v>0.62329999999999997</v>
       </c>
       <c r="E192">
         <v>-0.438656017616609</v>
@@ -3692,7 +3692,7 @@
         <v>-0.98967899035364204</v>
       </c>
       <c r="D193">
-        <v>1.14420788874034</v>
+        <v>0.59570000000000001</v>
       </c>
       <c r="E193">
         <v>-1.9018168267381299</v>
@@ -3709,7 +3709,7 @@
         <v>-1.049243295063</v>
       </c>
       <c r="D194">
-        <v>0.82832809240869099</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="E194">
         <v>-2.65836017561071</v>
@@ -3726,7 +3726,7 @@
         <v>-0.87053591628961902</v>
       </c>
       <c r="D195">
-        <v>0.88151326611260095</v>
+        <v>0.57609999999999995</v>
       </c>
       <c r="E195">
         <v>-2.4732532747289002</v>
@@ -3743,7 +3743,7 @@
         <v>-0.82619720883000103</v>
       </c>
       <c r="D196">
-        <v>0.88728722160400497</v>
+        <v>0.57120000000000004</v>
       </c>
       <c r="E196">
         <v>-2.2970007269131001</v>
@@ -3760,7 +3760,7 @@
         <v>-0.60830284906837695</v>
       </c>
       <c r="D197">
-        <v>1.1567194745681999</v>
+        <v>0.56240000000000001</v>
       </c>
       <c r="E197">
         <v>-1.4258795715708199</v>
@@ -3777,7 +3777,7 @@
         <v>-0.68710435446977403</v>
       </c>
       <c r="D198">
-        <v>1.01146470123082</v>
+        <v>0.55830000000000002</v>
       </c>
       <c r="E198">
         <v>-1.22967659388291</v>
@@ -3794,7 +3794,7 @@
         <v>-0.72815014206344197</v>
       </c>
       <c r="D199">
-        <v>1.01802467109733</v>
+        <v>0.55249999999999999</v>
       </c>
       <c r="E199">
         <v>-0.90648519583908205</v>
@@ -3811,7 +3811,7 @@
         <v>-0.81061318459562004</v>
       </c>
       <c r="D200">
-        <v>0.93038802800357701</v>
+        <v>0.54849999999999999</v>
       </c>
       <c r="E200">
         <v>-0.66063402585916697</v>
@@ -3828,7 +3828,7 @@
         <v>-0.76594879306011698</v>
       </c>
       <c r="D201">
-        <v>0.90872423674208702</v>
+        <v>0.54920000000000002</v>
       </c>
       <c r="E201">
         <v>-0.202693976732576</v>
@@ -3845,7 +3845,7 @@
         <v>-0.70747654136375004</v>
       </c>
       <c r="D202">
-        <v>0.76384898004124402</v>
+        <v>0.56120000000000003</v>
       </c>
       <c r="E202">
         <v>5.4567895166542299E-2</v>
@@ -3862,7 +3862,7 @@
         <v>-0.59215442420476005</v>
       </c>
       <c r="D203">
-        <v>0.92051100015821596</v>
+        <v>0.57220000000000004</v>
       </c>
       <c r="E203">
         <v>0.43834100066135301</v>
@@ -3879,7 +3879,7 @@
         <v>-0.63084198139963099</v>
       </c>
       <c r="D204">
-        <v>0.76577879532698401</v>
+        <v>0.59079999999999999</v>
       </c>
       <c r="E204">
         <v>0.44553042253710401</v>
@@ -3896,7 +3896,7 @@
         <v>-0.67127347956852301</v>
       </c>
       <c r="D205">
-        <v>0.88136938478613602</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="E205">
         <v>0.58010093217512804</v>
@@ -3913,7 +3913,7 @@
         <v>-0.55173172093771095</v>
       </c>
       <c r="D206">
-        <v>1.0101125568526099</v>
+        <v>0.61519999999999997</v>
       </c>
       <c r="E206">
         <v>1.2355438274350901</v>
@@ -3930,7 +3930,7 @@
         <v>-0.65767592408826903</v>
       </c>
       <c r="D207">
-        <v>0.875552485605955</v>
+        <v>0.63180000000000003</v>
       </c>
       <c r="E207">
         <v>1.2491974116208</v>
@@ -3947,7 +3947,7 @@
         <v>-0.75787257899951899</v>
       </c>
       <c r="D208">
-        <v>0.70500875491121995</v>
+        <v>0.65510000000000002</v>
       </c>
       <c r="E208">
         <v>1.1368251500814499</v>
@@ -3964,7 +3964,7 @@
         <v>-0.72401214460876895</v>
       </c>
       <c r="D209">
-        <v>0.66624552078218402</v>
+        <v>0.68330000000000002</v>
       </c>
       <c r="E209">
         <v>1.25474731141981</v>
@@ -3981,7 +3981,7 @@
         <v>-0.75247723258340105</v>
       </c>
       <c r="D210">
-        <v>0.77525899605329596</v>
+        <v>0.70679999999999998</v>
       </c>
       <c r="E210">
         <v>1.34727800530334</v>
@@ -3998,7 +3998,7 @@
         <v>-0.82964992921889902</v>
       </c>
       <c r="D211">
-        <v>0.64599089200512605</v>
+        <v>0.73519999999999996</v>
       </c>
       <c r="E211">
         <v>1.3304111123293301</v>
@@ -4015,7 +4015,7 @@
         <v>-0.79152736423405401</v>
       </c>
       <c r="D212">
-        <v>0.76829078237833504</v>
+        <v>0.76070000000000004</v>
       </c>
       <c r="E212">
         <v>1.58844534647017</v>
@@ -4032,7 +4032,7 @@
         <v>-0.77667015707717102</v>
       </c>
       <c r="D213">
-        <v>0.85331805052106802</v>
+        <v>0.7853</v>
       </c>
       <c r="E213">
         <v>1.8602263338809699</v>
@@ -4049,7 +4049,7 @@
         <v>-0.86416175177785204</v>
       </c>
       <c r="D214">
-        <v>0.58637378511947202</v>
+        <v>0.82120000000000004</v>
       </c>
       <c r="E214">
         <v>1.6738161291259499</v>
@@ -4066,7 +4066,7 @@
         <v>-0.805466179351499</v>
       </c>
       <c r="D215">
-        <v>0.85738787109503201</v>
+        <v>0.84660000000000002</v>
       </c>
       <c r="E215">
         <v>1.9215804021923799</v>
@@ -4083,7 +4083,7 @@
         <v>-0.83637186375766603</v>
       </c>
       <c r="D216">
-        <v>0.96420079725502295</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="E216">
         <v>2.1733503355436601</v>
@@ -4100,7 +4100,7 @@
         <v>-0.92140922401159897</v>
       </c>
       <c r="D217">
-        <v>0.85848193929525796</v>
+        <v>0.88970000000000005</v>
       </c>
       <c r="E217">
         <v>2.1986349905665699</v>
@@ -4117,7 +4117,7 @@
         <v>-1.0101885312804</v>
       </c>
       <c r="D218">
-        <v>0.86975033947180802</v>
+        <v>0.90969999999999995</v>
       </c>
       <c r="E218">
         <v>2.1548550186430502</v>
@@ -4134,7 +4134,7 @@
         <v>-0.915861629653556</v>
       </c>
       <c r="D219">
-        <v>0.96031734562929505</v>
+        <v>0.93059999999999998</v>
       </c>
       <c r="E219">
         <v>2.5226723708893801</v>
@@ -4151,7 +4151,7 @@
         <v>-0.98211443608921301</v>
       </c>
       <c r="D220">
-        <v>0.88861056590777299</v>
+        <v>0.95440000000000003</v>
       </c>
       <c r="E220">
         <v>2.40059199109885</v>
@@ -4168,7 +4168,7 @@
         <v>-1.0459283990814801</v>
       </c>
       <c r="D221">
-        <v>0.78733068480715096</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="E221">
         <v>2.1906766011867398</v>
@@ -4185,7 +4185,7 @@
         <v>-0.98426785822806195</v>
       </c>
       <c r="D222">
-        <v>0.88947739991228203</v>
+        <v>1.0097</v>
       </c>
       <c r="E222">
         <v>2.3042479040264001</v>
@@ -4202,7 +4202,7 @@
         <v>-0.92778919961497197</v>
       </c>
       <c r="D223">
-        <v>0.91507681943776598</v>
+        <v>1.0394000000000001</v>
       </c>
       <c r="E223">
         <v>2.41383791431406</v>
@@ -4219,7 +4219,7 @@
         <v>-0.97222450676596195</v>
       </c>
       <c r="D224">
-        <v>0.95009967087640601</v>
+        <v>1.0669</v>
       </c>
       <c r="E224">
         <v>2.3217559936688299</v>
@@ -4236,7 +4236,7 @@
         <v>-1.0372779012459299</v>
       </c>
       <c r="D225">
-        <v>0.91168269585220496</v>
+        <v>1.0951</v>
       </c>
       <c r="E225">
         <v>2.2226626183118001</v>
@@ -4253,7 +4253,7 @@
         <v>-1.0196428852018899</v>
       </c>
       <c r="D226">
-        <v>0.92723413562263202</v>
+        <v>1.1242000000000001</v>
       </c>
       <c r="E226">
         <v>2.3032008719850401</v>
@@ -4270,7 +4270,7 @@
         <v>-1.10611614630221</v>
       </c>
       <c r="D227">
-        <v>0.87815227471096502</v>
+        <v>1.1528</v>
       </c>
       <c r="E227">
         <v>2.1260561380906902</v>
@@ -4287,7 +4287,7 @@
         <v>-1.1541069203254499</v>
       </c>
       <c r="D228">
-        <v>0.909171549490568</v>
+        <v>1.1778</v>
       </c>
       <c r="E228">
         <v>2.0759582821714302</v>
@@ -4304,7 +4304,7 @@
         <v>-1.09855857872732</v>
       </c>
       <c r="D229">
-        <v>1.08918498590478</v>
+        <v>1.1961999999999999</v>
       </c>
       <c r="E229">
         <v>2.3497718719768299</v>
@@ -4321,7 +4321,7 @@
         <v>-1.0033072798129401</v>
       </c>
       <c r="D230">
-        <v>1.2168118087403199</v>
+        <v>1.2126999999999999</v>
       </c>
       <c r="E230">
         <v>2.7037503110420902</v>
@@ -4338,7 +4338,7 @@
         <v>-1.03902780749069</v>
       </c>
       <c r="D231">
-        <v>1.1899141522466901</v>
+        <v>1.2296</v>
       </c>
       <c r="E231">
         <v>2.6322910598789799</v>
@@ -4355,7 +4355,7 @@
         <v>-1.1690083924925101</v>
       </c>
       <c r="D232">
-        <v>1.12233364826295</v>
+        <v>1.2452000000000001</v>
       </c>
       <c r="E232">
         <v>2.2840757441795199</v>
@@ -4372,7 +4372,7 @@
         <v>-1.1567413566792299</v>
       </c>
       <c r="D233">
-        <v>1.0650585640436501</v>
+        <v>1.264</v>
       </c>
       <c r="E233">
         <v>2.18978337544308</v>
@@ -4389,7 +4389,7 @@
         <v>-1.2149563604345099</v>
       </c>
       <c r="D234">
-        <v>1.0817098550912401</v>
+        <v>1.2786999999999999</v>
       </c>
       <c r="E234">
         <v>1.9207498140828001</v>
@@ -4406,7 +4406,7 @@
         <v>-1.2220363512735499</v>
       </c>
       <c r="D235">
-        <v>1.1667387177616599</v>
+        <v>1.2878000000000001</v>
       </c>
       <c r="E235">
         <v>1.8669146321904</v>
@@ -4423,7 +4423,7 @@
         <v>-1.25080973782787</v>
       </c>
       <c r="D236">
-        <v>1.289421843582</v>
+        <v>1.2887</v>
       </c>
       <c r="E236">
         <v>1.8603309357309901</v>
@@ -4440,7 +4440,7 @@
         <v>-1.28927934539662</v>
       </c>
       <c r="D237">
-        <v>1.27229081386112</v>
+        <v>1.2890999999999999</v>
       </c>
       <c r="E237">
         <v>1.8138588893391401</v>
@@ -4457,7 +4457,7 @@
         <v>-1.27948936458456</v>
       </c>
       <c r="D238">
-        <v>1.27913848045235</v>
+        <v>1.2927</v>
       </c>
       <c r="E238">
         <v>1.8077769575436999</v>
@@ -4474,7 +4474,7 @@
         <v>-1.28768868673357</v>
       </c>
       <c r="D239">
-        <v>1.24804333193887</v>
+        <v>1.2977000000000001</v>
       </c>
       <c r="E239">
         <v>-0.769488477563952</v>
@@ -4491,7 +4491,7 @@
         <v>-1.27597736682788</v>
       </c>
       <c r="D240">
-        <v>1.3166089199519999</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="E240">
         <v>5.3801420278443297</v>
@@ -4508,7 +4508,7 @@
         <v>-1.2793074694411699</v>
       </c>
       <c r="D241">
-        <v>1.2959370317644701</v>
+        <v>1.3010999999999999</v>
       </c>
       <c r="E241">
         <v>6.1492106160737698</v>
@@ -4525,7 +4525,7 @@
         <v>-1.2054250623551701</v>
       </c>
       <c r="D242">
-        <v>1.41853495006354</v>
+        <v>1.2998000000000001</v>
       </c>
       <c r="E242">
         <v>6.7770843598125703</v>
@@ -4542,7 +4542,7 @@
         <v>-1.06473997348373</v>
       </c>
       <c r="D243">
-        <v>1.45757305000378</v>
+        <v>1.2992999999999999</v>
       </c>
       <c r="E243">
         <v>7.1591417424966997</v>
@@ -4559,7 +4559,7 @@
         <v>-1.0990291299845301</v>
       </c>
       <c r="D244">
-        <v>1.42912092177234</v>
+        <v>1.2985</v>
       </c>
       <c r="E244">
         <v>6.73492301724656</v>
@@ -4576,7 +4576,7 @@
         <v>-1.0701259288572</v>
       </c>
       <c r="D245">
-        <v>1.68956430413957</v>
+        <v>1.2871999999999999</v>
       </c>
       <c r="E245">
         <v>7.01286931682783</v>
@@ -4593,7 +4593,7 @@
         <v>-1.0733587302219201</v>
       </c>
       <c r="D246">
-        <v>1.4187820819280801</v>
+        <v>1.2902</v>
       </c>
       <c r="E246">
         <v>6.3034493274994396</v>
@@ -4610,7 +4610,7 @@
         <v>-1.14223998873009</v>
       </c>
       <c r="D247">
-        <v>1.19859539978512</v>
+        <v>1.3033999999999999</v>
       </c>
       <c r="E247">
         <v>4.7855396820631402</v>
@@ -4627,7 +4627,7 @@
         <v>-1.14535371157267</v>
       </c>
       <c r="D248">
-        <v>1.28808033667809</v>
+        <v>1.3116000000000001</v>
       </c>
       <c r="E248">
         <v>4.3905462004809701</v>
@@ -4644,7 +4644,7 @@
         <v>-1.1802660673268901</v>
       </c>
       <c r="D249">
-        <v>1.24820799287808</v>
+        <v>1.3208</v>
       </c>
       <c r="E249">
         <v>4.1402628948228202</v>
@@ -4661,7 +4661,7 @@
         <v>-1.2591576104673201</v>
       </c>
       <c r="D250">
-        <v>1.1845293175568501</v>
+        <v>1.3317000000000001</v>
       </c>
       <c r="E250">
         <v>3.71791756962052</v>
@@ -4678,7 +4678,7 @@
         <v>-1.4346709525965999</v>
       </c>
       <c r="D251">
-        <v>1.05080666473152</v>
+        <v>1.3435999999999999</v>
       </c>
       <c r="E251">
         <v>2.89406804579203</v>
@@ -4695,7 +4695,7 @@
         <v>-1.7082133302664999</v>
       </c>
       <c r="D252">
-        <v>0.98164383833575597</v>
+        <v>1.3503000000000001</v>
       </c>
       <c r="E252">
         <v>1.60079212678003</v>
@@ -4712,7 +4712,7 @@
         <v>-1.86147841298941</v>
       </c>
       <c r="D253">
-        <v>0.86495255957388995</v>
+        <v>1.3555999999999999</v>
       </c>
       <c r="E253">
         <v>0.96804929481006796</v>
@@ -4729,7 +4729,7 @@
         <v>-1.7178184544623301</v>
       </c>
       <c r="D254">
-        <v>0.89072491263965203</v>
+        <v>1.3619000000000001</v>
       </c>
       <c r="E254">
         <v>1.22429526278678</v>
@@ -4746,7 +4746,7 @@
         <v>-1.81389177454679</v>
       </c>
       <c r="D255">
-        <v>0.85779552044681795</v>
+        <v>1.3647</v>
       </c>
       <c r="E255">
         <v>0.56465550868074099</v>
@@ -4763,7 +4763,7 @@
         <v>-1.8953258203951899</v>
       </c>
       <c r="D256">
-        <v>0.81923690637813595</v>
+        <v>1.3656999999999999</v>
       </c>
       <c r="E256">
         <v>3.21257114656942E-2</v>
@@ -4780,7 +4780,7 @@
         <v>-1.86373097949462</v>
       </c>
       <c r="D257">
-        <v>0.82580270195697403</v>
+        <v>1.3671</v>
       </c>
       <c r="E257">
         <v>-0.14673261006817001</v>
@@ -4797,7 +4797,7 @@
         <v>-1.7731442740227801</v>
       </c>
       <c r="D258">
-        <v>0.79233318530653496</v>
+        <v>1.373</v>
       </c>
       <c r="E258">
         <v>-0.186534973631069</v>
@@ -4814,7 +4814,7 @@
         <v>-1.8508269212184001</v>
       </c>
       <c r="D259">
-        <v>0.83983802526122697</v>
+        <v>1.373</v>
       </c>
       <c r="E259">
         <v>-0.63149601090174201</v>
